--- a/biology/Histoire de la zoologie et de la botanique/Jacob_Gijsbertus_Samuël_van_Breda/Jacob_Gijsbertus_Samuël_van_Breda.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacob_Gijsbertus_Samuël_van_Breda/Jacob_Gijsbertus_Samuël_van_Breda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacob_Gijsbertus_Samu%C3%ABl_van_Breda</t>
+          <t>Jacob_Gijsbertus_Samuël_van_Breda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Gijsbertus Samuël van Breda (24 octobre 1788 – 2 septembre 1867) est un biologiste et géologue néerlandais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacob_Gijsbertus_Samu%C3%ABl_van_Breda</t>
+          <t>Jacob_Gijsbertus_Samuël_van_Breda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Gijsbertus Samuël van Breda est né le 24 octobre 1788 à Delft. Il étudie la médecine et les sciences à l'université de Leyde et en sort diplômé en 1811 après quoi il passe une année à Paris. En 1816, il obtient une chaire de botanique, chimie et pharmacologie à l'université de Franeker avant d'être nommé professeur de botanique, zoologie et anatomie comparée à l'université de Gand. Il contribue alors à la réalisation d'une carte géologique de ce qui correspond à la Belgique actuelle. À la suite de la révolution belge en 1830, il doit quitter Gand et s'installe de nouveau à Leyde et entretient des liens avec l'université où il enseigne à partir de 1835 la zoologie et la géologie. En 1839, il est nommé directeur du musée Teyler à Haarlem et commence à rassembler une importante collection de fossiles. Il meurt le 2 septembre 1867 à Haarlem.
 </t>
